--- a/数据表数据/T_FACILITY_INSP_DETAIL.xlsx
+++ b/数据表数据/T_FACILITY_INSP_DETAIL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目\HMNL\0数据中心\5_结构巡检\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\周显威\Documents\GitHub\docs\数据表数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="45" windowWidth="19395" windowHeight="6945"/>
+    <workbookView xWindow="600" yWindow="48" windowWidth="19392" windowHeight="6948" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表定义" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1100,27 +1100,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.5" style="21" customWidth="1"/>
-    <col min="9" max="9" width="27.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.75" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.125" style="14"/>
+    <col min="8" max="8" width="54.44140625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="3" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" s="6" customFormat="1">
       <c r="A3" s="4" t="s">
         <v>94</v>
       </c>
@@ -1187,7 +1187,7 @@
       <c r="H3" s="7"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" s="6" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>65</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="6" customFormat="1">
       <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="6" customFormat="1">
       <c r="A6" s="4" t="s">
         <v>81</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="6" customFormat="1">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="6" customFormat="1">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="6" customFormat="1">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="6" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>105</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="6" customFormat="1">
       <c r="A11" s="22" t="s">
         <v>131</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" s="6" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>83</v>
       </c>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:9" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="6" customFormat="1" ht="41.4">
       <c r="A13" s="7" t="s">
         <v>84</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" s="6" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="6" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" s="6" customFormat="1" ht="55.2">
       <c r="A15" s="4" t="s">
         <v>120</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" s="6" customFormat="1">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" s="6" customFormat="1">
       <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" s="6" customFormat="1">
       <c r="A18" s="4" t="s">
         <v>76</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="H18" s="7"/>
     </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" s="6" customFormat="1">
       <c r="A19" s="4" t="s">
         <v>77</v>
       </c>
@@ -1526,7 +1526,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" s="6" customFormat="1">
       <c r="A20" s="4" t="s">
         <v>74</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" s="6" customFormat="1">
       <c r="A21" s="4" t="s">
         <v>118</v>
       </c>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" s="6" customFormat="1">
       <c r="A22" s="4" t="s">
         <v>119</v>
       </c>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="6" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18">
       <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
@@ -1629,7 +1629,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18">
       <c r="A26" s="4" t="s">
         <v>48</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" s="4" t="s">
         <v>51</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1705,7 +1705,7 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" s="4" t="s">
         <v>57</v>
       </c>
@@ -1730,7 +1730,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18">
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -1781,42 +1781,42 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="6" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="53.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.125" style="6"/>
+    <col min="19" max="19" width="16.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="53.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="27.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
@@ -1914,20 +1914,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.77734375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="18" t="s">
         <v>113</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
         <v>69</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="18" t="s">
         <v>68</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="18" t="s">
         <v>122</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="18" t="s">
         <v>108</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="18" t="s">
         <v>123</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>124</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="17" t="s">
         <v>125</v>
       </c>

--- a/数据表数据/T_FACILITY_INSP_DETAIL.xlsx
+++ b/数据表数据/T_FACILITY_INSP_DETAIL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="48" windowWidth="19392" windowHeight="6948" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="48" windowWidth="19392" windowHeight="6948" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表定义" sheetId="1" r:id="rId1"/>
@@ -1777,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -1914,7 +1914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
